--- a/documents/reports/semtech2012/SemTech 2012 Results.xlsx
+++ b/documents/reports/semtech2012/SemTech 2012 Results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28280" windowHeight="18000" tabRatio="500" firstSheet="20" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28280" windowHeight="18000" tabRatio="500" firstSheet="14" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="TDB 10k" sheetId="2" r:id="rId1"/>
@@ -981,11 +981,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2069854584"/>
-        <c:axId val="2069861432"/>
+        <c:axId val="2144983768"/>
+        <c:axId val="2142994184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2069854584"/>
+        <c:axId val="2144983768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069861432"/>
+        <c:crossAx val="2142994184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2069861432"/>
+        <c:axId val="2142994184"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1052,7 +1052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069854584"/>
+        <c:crossAx val="2144983768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,11 +1356,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2146820264"/>
-        <c:axId val="2146814776"/>
+        <c:axId val="2140362648"/>
+        <c:axId val="2140357144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146820264"/>
+        <c:axId val="2140362648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146814776"/>
+        <c:crossAx val="2140357144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1396,7 +1396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146814776"/>
+        <c:axId val="2140357144"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1432,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146820264"/>
+        <c:crossAx val="2140362648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1744,11 +1744,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2146770088"/>
-        <c:axId val="2146764600"/>
+        <c:axId val="2140307272"/>
+        <c:axId val="2140301768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2146770088"/>
+        <c:axId val="2140307272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +1776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146764600"/>
+        <c:crossAx val="2140301768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146764600"/>
+        <c:axId val="2140301768"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1815,7 +1815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146770088"/>
+        <c:crossAx val="2140307272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2067,11 +2067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131794056"/>
-        <c:axId val="-2131788616"/>
+        <c:axId val="2144160168"/>
+        <c:axId val="2144165656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131794056"/>
+        <c:axId val="2144160168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131788616"/>
+        <c:crossAx val="2144165656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2107,7 +2107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131788616"/>
+        <c:axId val="2144165656"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2138,7 +2138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131794056"/>
+        <c:crossAx val="2144160168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2390,11 +2390,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2132341800"/>
-        <c:axId val="-2132347304"/>
+        <c:axId val="2144212216"/>
+        <c:axId val="2144217704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132341800"/>
+        <c:axId val="2144212216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +2422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132347304"/>
+        <c:crossAx val="2144217704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2430,7 +2430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132347304"/>
+        <c:axId val="2144217704"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2466,7 +2466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132341800"/>
+        <c:crossAx val="2144212216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2726,11 +2726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2132406024"/>
-        <c:axId val="-2132411480"/>
+        <c:axId val="2144263448"/>
+        <c:axId val="2144268936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132406024"/>
+        <c:axId val="2144263448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +2758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132411480"/>
+        <c:crossAx val="2144268936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2766,7 +2766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132411480"/>
+        <c:axId val="2144268936"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2797,7 +2797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132406024"/>
+        <c:crossAx val="2144263448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3484,11 +3484,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144562360"/>
-        <c:axId val="-2144559384"/>
+        <c:axId val="2143762248"/>
+        <c:axId val="2143759256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144562360"/>
+        <c:axId val="2143762248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +3497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144559384"/>
+        <c:crossAx val="2143759256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3505,7 +3505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144559384"/>
+        <c:axId val="2143759256"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3513,11 +3513,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Runtime in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144562360"/>
+        <c:crossAx val="2143762248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4068,11 +4087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127974936"/>
-        <c:axId val="-2127971960"/>
+        <c:axId val="2143703064"/>
+        <c:axId val="2143699912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127974936"/>
+        <c:axId val="2143703064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4081,7 +4100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127971960"/>
+        <c:crossAx val="2143699912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4089,7 +4108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127971960"/>
+        <c:axId val="2143699912"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4101,7 +4120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127974936"/>
+        <c:crossAx val="2143703064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22326,8 +22345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23530,8 +23549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23550,7 +23569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>

--- a/documents/reports/semtech2012/SemTech 2012 Results.xlsx
+++ b/documents/reports/semtech2012/SemTech 2012 Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28280" windowHeight="18000" tabRatio="500" firstSheet="14" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="42580" windowHeight="22200" tabRatio="500" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="TDB 10k" sheetId="2" r:id="rId1"/>
@@ -27,13 +27,15 @@
     <sheet name="Virtuoso 6.1.3 50k" sheetId="21" r:id="rId18"/>
     <sheet name="Virtuoso 6.1.3 250k" sheetId="22" r:id="rId19"/>
     <sheet name="dotNetRDF Mem 10k" sheetId="23" r:id="rId20"/>
-    <sheet name="Summary Comparison" sheetId="12" r:id="rId21"/>
-    <sheet name="Sanitised Summary Comparison" sheetId="25" r:id="rId22"/>
-    <sheet name="Query Comparison" sheetId="14" r:id="rId23"/>
-    <sheet name="Sanitised Query Comparison" sheetId="26" r:id="rId24"/>
+    <sheet name="OWLIM Lite 10k" sheetId="27" r:id="rId21"/>
+    <sheet name="OWLIM Lite 50k" sheetId="28" r:id="rId22"/>
+    <sheet name="Summary Comparison" sheetId="12" r:id="rId23"/>
+    <sheet name="Query Comparison" sheetId="14" r:id="rId24"/>
+    <sheet name="Sanitised Summary Comparison" sheetId="25" r:id="rId25"/>
+    <sheet name="Sanitised Query Comparison" sheetId="26" r:id="rId26"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId27"/>
   </externalReferences>
   <definedNames>
     <definedName name="bigdata_worm_10k" localSheetId="14">'Bigdata WORM 10k'!$A$1:$L$65</definedName>
@@ -41,6 +43,8 @@
     <definedName name="dotnetrdf_070_mem_10k" localSheetId="19">'dotNetRDF Mem 10k'!$A$1:$L$65</definedName>
     <definedName name="dydra_10k" localSheetId="12">'Dydra 10k'!$A$1:$L$65</definedName>
     <definedName name="dydra_50k" localSheetId="13">'Dydra 50k'!$A$1:$L$65</definedName>
+    <definedName name="owlim_lite_10k" localSheetId="20">'OWLIM Lite 10k'!$A$1:$L$65</definedName>
+    <definedName name="owlim_lite_50k" localSheetId="21">'OWLIM Lite 50k'!$A$1:$L$65</definedName>
     <definedName name="sesame_mem_10k" localSheetId="8">'Sesame Mem 10k'!$A$1:$L$65</definedName>
     <definedName name="sesame_mem_50k" localSheetId="9">'Sesame Mem 50k'!$A$1:$L$65</definedName>
     <definedName name="sesame_native_10k" localSheetId="10">'Sesame Native 10k'!$A$1:$L$65</definedName>
@@ -130,7 +134,30 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="sesame_mem_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="6" name="owlim_lite_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:owlim_lite_10k.csv" comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="owlim_lite_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:owlim_lite_50k.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="sesame_mem_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:sesame_mem_10k.csv" tab="0" comma="1">
       <textFields count="10">
         <textField/>
@@ -146,7 +173,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="sesame_mem_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="sesame_mem_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:sesame_mem_50k.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -162,7 +189,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="sesame_native_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="10" name="sesame_native_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:sesame_native_10k.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -178,7 +205,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="sesame_native_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="11" name="sesame_native_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:sesame_native_50k.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -194,7 +221,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="stardog_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="12" name="stardog_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:stardog_10k.csv" tab="0" comma="1">
       <textFields count="10">
         <textField/>
@@ -210,7 +237,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="stardog_250k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="13" name="stardog_250k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:stardog_250k.csv" tab="0" comma="1">
       <textFields count="10">
         <textField/>
@@ -226,7 +253,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="stardog_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="14" name="stardog_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:stardog_50k.csv" tab="0" comma="1">
       <textFields count="10">
         <textField/>
@@ -242,7 +269,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="stardog_mem_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="15" name="stardog_mem_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:stardog_mem_10k.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -258,7 +285,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="stardog_mem_250k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="16" name="stardog_mem_250k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:stardog_mem_250k.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -274,7 +301,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="stardog_mem_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="17" name="stardog_mem_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:stardog_mem_50k.csv" comma="1">
       <textFields count="10">
         <textField/>
@@ -290,7 +317,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" name="tdb_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="18" name="tdb_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:tdb_10k.csv" tab="0" comma="1">
       <textFields count="10">
         <textField/>
@@ -306,7 +333,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" name="tdb_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="19" name="tdb_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Documents:Personal:sparql-query-benchmarking:trunk:cmd:tdb_50k.csv" tab="0" comma="1">
       <textFields count="10">
         <textField/>
@@ -322,7 +349,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" name="virtuoso_613_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="20" name="virtuoso_613_10k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Dropbox:Projects:Benchmarking:virtuoso_613_10k.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -330,14 +357,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" name="virtuoso_613_250k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="21" name="virtuoso_613_250k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Dropbox:Projects:Benchmarking:virtuoso_613_250k.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" name="virtuoso_613_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="22" name="virtuoso_613_50k.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:rvesse:Dropbox:Projects:Benchmarking:virtuoso_613_50k.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -349,7 +376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="93">
   <si>
     <t>Total Response Time</t>
   </si>
@@ -617,6 +644,18 @@
   <si>
     <t>dotNetRDF Mem</t>
   </si>
+  <si>
+    <t>http://localhost:8080/openrdf-sesame/repositories/10k-owlim</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/openrdf-sesame/repositories/50k-owlim</t>
+  </si>
+  <si>
+    <t>OWLIM Lite</t>
+  </si>
+  <si>
+    <t>Average Runtime</t>
+  </si>
 </sst>
 </file>
 
@@ -671,8 +710,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -685,13 +728,17 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,9 +822,6 @@
                 <c:pt idx="1">
                   <c:v>125.362848695</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -972,6 +1016,29 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>OWLIM Lite</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Comparison'!$D$29:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.090692652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>455.308442173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -981,11 +1048,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2144983768"/>
-        <c:axId val="2142994184"/>
+        <c:axId val="2129274744"/>
+        <c:axId val="2129277992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144983768"/>
+        <c:axId val="2129274744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142994184"/>
+        <c:crossAx val="2129277992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1021,7 +1088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142994184"/>
+        <c:axId val="2129277992"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1052,7 +1119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144983768"/>
+        <c:crossAx val="2129274744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1150,9 +1217,6 @@
                 <c:pt idx="1">
                   <c:v>28.716641632471</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1347,6 +1411,29 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>OWLIM Lite</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Comparison'!$F$29:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>223.731822977336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.90672798162643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1356,11 +1443,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2140362648"/>
-        <c:axId val="2140357144"/>
+        <c:axId val="-2146197448"/>
+        <c:axId val="-2146202920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140362648"/>
+        <c:axId val="-2146197448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140357144"/>
+        <c:crossAx val="-2146202920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1396,7 +1483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140357144"/>
+        <c:axId val="-2146202920"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1432,7 +1519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140362648"/>
+        <c:crossAx val="-2146197448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,7 +1579,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20467660933044"/>
+          <c:y val="0.0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1538,9 +1632,6 @@
                 <c:pt idx="1">
                   <c:v>121.506312739</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1735,6 +1826,29 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>OWLIM Lite</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary Comparison'!$C$29:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.706990652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.915685304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1744,11 +1858,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2140307272"/>
-        <c:axId val="2140301768"/>
+        <c:axId val="-2146255576"/>
+        <c:axId val="-2146261048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2140307272"/>
+        <c:axId val="-2146255576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,13 +1884,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140301768"/>
+        <c:crossAx val="-2146261048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1784,7 +1897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140301768"/>
+        <c:axId val="-2146261048"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1808,21 +1921,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140307272"/>
+        <c:crossAx val="-2146255576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1862,8 +1973,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>SP2B Query Mix Average Runtime (in Seconds) Comparison</a:t>
+              <a:t>SP2B 10k</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Runtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per Query Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1886,35 +2010,373 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10k</c:v>
+                  <c:v>1.txt</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50k</c:v>
+                  <c:v>2.txt</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250k</c:v>
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$2:$D$4</c:f>
+              <c:f>'TDB 10k'!$E$49:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>3.724455869</c:v>
+                  <c:v>0.004476</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.362848695</c:v>
+                  <c:v>0.022056869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.014085043</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00479313</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00435186899999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.833230434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.279155086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.066903869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.379535826</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.053739695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.011515782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0157136519999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.005807086</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.006676347</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.004705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.005731608</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.004069695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stardog Disk</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stardog Disk 10k'!$E$49:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.00545778199999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01430626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01076313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.005456913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.005237347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.285033826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.135209521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.009908652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.015201695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.010249956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.036754565</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.009383608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.005740869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.007005565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.007355869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.036911521</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.004262782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Stardog Mem</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Stardog Mem 10k'!$E$49:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.003909347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00918699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.007652782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00371926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.003668304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.197475565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.084545608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00682826</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.009217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.005271608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.027581608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.005414608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00460734699999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.005268739</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.004771695</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.026659478</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.003325782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,22 +2384,126 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Sesame Mem</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$11:$D$13</c:f>
+              <c:f>'Sesame Mem 10k'!$E$49:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>4.266848565</c:v>
+                  <c:v>0.00309626</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.749644869</c:v>
+                  <c:v>0.014357913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.009186826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00314130399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.003294304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.384007869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.615454782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.031186086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.756761304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.046467913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.293133565</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.008307086</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.003419</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.006004608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.007521565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.07703426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.002668043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,22 +2511,126 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>Sesame Native</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$14:$D$16</c:f>
+              <c:f>'Sesame Native 10k'!$E$49:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>15.442357434</c:v>
+                  <c:v>0.00474826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>472.92379213</c:v>
+                  <c:v>0.024995826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.023190652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00481326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004542434</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.910115695</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.705887086</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.066756913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.83508012999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.145467521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.525142565</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.006332652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.007967434</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.016132869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.005477347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.146440739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00376482599999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,22 +2638,126 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>Dydra</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$17:$D$19</c:f>
+              <c:f>'Dydra 10k'!$E$49:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>9.277226304</c:v>
+                  <c:v>0.217463739</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.7278340859999</c:v>
+                  <c:v>0.818281304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.697952869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.226186826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.226167086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.235393956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.535346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90145513</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.711353347</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.273741564999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.549606217</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.261675434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49908613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.232072304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.270068217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.430855434</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.217079521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,22 +2765,126 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>Bigdata WORM</c:v>
+            <c:v>BigData WORM</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$20:$D$22</c:f>
+              <c:f>'Bigdata WORM 10k'!$E$49:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>4.464726304</c:v>
+                  <c:v>0.0157984779999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>113.735311216999</c:v>
+                  <c:v>0.0418411729999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.029032478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.030360826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0369602599999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.146339956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.423405956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.026087695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.460229565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.031354304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.063052521</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.027212347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.016584913</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0250659999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.024351652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.028175652</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.025515913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,25 +2892,126 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="5"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>Virtuoso 6.1.3</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$23:$D$25</c:f>
+              <c:f>'Virtuoso 6.1.3 10k'!$E$49:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.70468949</c:v>
+                  <c:v>0.004338635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.315573961</c:v>
+                  <c:v>0.161502051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.811962686</c:v>
+                  <c:v>0.022269294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003965773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.003526811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.086050222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.035805185</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.079064931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.142329936</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0346979699999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.031335836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.044076757</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00819089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.009838238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.005470994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.009324822</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00302721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,19 +3019,253 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="6"/>
+          <c:order val="8"/>
           <c:tx>
-            <c:v>dotNetRDF Mem</c:v>
+            <c:v>dotNetRDF</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$26:$D$28</c:f>
+              <c:f>'dotNetRDF Mem 10k'!$E$49:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>20.679973203</c:v>
+                  <c:v>0.003695123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.050075811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.032827114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.010071991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00919553299999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.140597125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.751517409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474964963</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.640019012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.144264724</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.180439222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.07297408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00724163699999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.051134099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.086294836</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.007357217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.002720619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>OWLIM Lite</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3a.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3b.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3c.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5a.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5b.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12a.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12b.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12c.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'OWLIM Lite 10k'!$E$49:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.003695608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0145617819999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.014187304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.005090695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004957086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.576958347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.912139782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.294183652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.800989869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.356058913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0129284339999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.027210869</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.004718869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0120229999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.003673391</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.006475956</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.003093739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,39 +3280,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2144160168"/>
-        <c:axId val="2144165656"/>
+        <c:axId val="-2142119496"/>
+        <c:axId val="-2142116584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2144160168"/>
+        <c:axId val="-2142119496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dataset Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144165656"/>
+        <c:crossAx val="-2142116584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2107,9 +3301,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144165656"/>
+        <c:axId val="-2142116584"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2126,7 +3319,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Runtime (Arithmetic) in Seconds</a:t>
+                  <a:t>Average Runtime in Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2138,7 +3331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144160168"/>
+        <c:crossAx val="-2142119496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2161,665 +3354,6 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SP2B Query Mixes per Hour Comparison</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>TDB</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>966.584147221103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.716641632471</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Sesame Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$11:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>843.714030427513</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.929147131086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Sesame Native</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$14:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>233.125027405061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.61222010799239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Dydra</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$17:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>388.047017722076</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.926275486943</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Bigdata WORM</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$20:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>806.320422547451</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.6524389961128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Virtuoso 6.1.3</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$23:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2111.82154938961</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>207.905323156385</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.9698921740766</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>dotNetRDF Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$26:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>174.081463484573</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2144212216"/>
-        <c:axId val="2144217704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2144212216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dataset Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144217704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2144217704"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Query Mixes</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> per Hour</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144212216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SP2B Query Mix Average Response</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> (in Seconds) Comparison</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>TDB</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.462149173</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.506312739</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Sesame Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$11:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.358126217</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.692348956</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Sesame Native</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$14:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.100502869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.602141565</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Dydra</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$17:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.376073521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.025702391</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Bigdata WORM</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$20:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.877815956</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.754828913</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Virtuoso 6.1.3</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$23:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.57624616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.144235053</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88.400123554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>dotNetRDF Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$26:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20.389302331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2144263448"/>
-        <c:axId val="2144268936"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2144263448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dataset Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144268936"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2144268936"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Response Time (Arithmetic) in Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144263448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2867,7 +3401,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0360092430948431"/>
+          <c:y val="0.00986031224322103"/>
+          <c:w val="0.84323117154054"/>
+          <c:h val="0.903697617091208"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3475,6 +4019,74 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>OWLIM Lite</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'OWLIM Lite 50k'!$E$49:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.004870739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.084512217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.055771217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.010831</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009512826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292.958013391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.802223217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.545223521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.030850869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.952273565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.027609565</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.115306347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.008280478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.057239565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.986875478</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.014590869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.003963956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3484,11 +4096,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2143762248"/>
-        <c:axId val="2143759256"/>
+        <c:axId val="-2146225816"/>
+        <c:axId val="2075153960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143762248"/>
+        <c:axId val="-2146225816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +4109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143759256"/>
+        <c:crossAx val="2075153960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3505,7 +4117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143759256"/>
+        <c:axId val="2075153960"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3536,7 +4148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143762248"/>
+        <c:crossAx val="-2146225816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3558,7 +4170,977 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SP2B Query Mix Average Runtime (in Seconds) Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TDB</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.724455869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.362848695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sesame Mem</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$D$11:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.266848565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.749644869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Sesame Native</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$D$14:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.442357434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>472.92379213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Dydra</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$D$17:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.277226304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.7278340859999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Bigdata WORM</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$D$20:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.464726304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.735311216999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Virtuoso 6.1.3</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$D$23:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.70468949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.315573961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.811962686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>dotNetRDF Mem</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$D$26:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.679973203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2144695752"/>
+        <c:axId val="-2144690264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2144695752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dataset Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144690264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144690264"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Runtime (Arithmetic) in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144695752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SP2B Query Mixes per Hour Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TDB</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>966.584147221103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.716641632471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sesame Mem</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>843.714030427513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.929147131086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Sesame Native</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$F$14:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>233.125027405061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.61222010799239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Dydra</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$F$17:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>388.047017722076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.926275486943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Bigdata WORM</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$F$20:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>806.320422547451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.6524389961128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Virtuoso 6.1.3</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$F$23:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2111.82154938961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207.905323156385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.9698921740766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>dotNetRDF Mem</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$F$26:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>174.081463484573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2144643608"/>
+        <c:axId val="-2144638120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2144643608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dataset Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144638120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144638120"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Query Mixes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Hour</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144643608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SP2B Query Mix Average Response</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> (in Seconds) Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TDB</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50k</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.462149173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.506312739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Sesame Mem</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$C$11:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.358126217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.692348956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Sesame Native</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$C$14:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.100502869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.602141565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Dydra</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.376073521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.025702391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Bigdata WORM</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$C$20:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.877815956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.754828913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Virtuoso 6.1.3</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$C$23:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.57624616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.144235053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.400123554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>dotNetRDF Mem</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sanitised Summary Comparison'!$C$26:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.389302331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2144592472"/>
+        <c:axId val="-2144586984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2144592472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dataset Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144586984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144586984"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Response Time (Arithmetic) in Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144592472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3601,7 +5183,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4087,11 +5668,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2143703064"/>
-        <c:axId val="2143699912"/>
+        <c:axId val="-2144535384"/>
+        <c:axId val="-2144532248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143703064"/>
+        <c:axId val="-2144535384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,7 +5681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143699912"/>
+        <c:crossAx val="-2144532248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4108,7 +5689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143699912"/>
+        <c:axId val="-2144532248"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4120,14 +5701,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143703064"/>
+        <c:crossAx val="-2144535384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4176,16 +5756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4206,16 +5786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4240,6 +5820,73 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4340,41 +5987,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4426,19 +6038,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tdb_10k" connectionId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tdb_10k" connectionId="18" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sesame_mem_50k" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sesame_mem_50k" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sesame_native_10k" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sesame_native_10k" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sesame_native_50k" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sesame_native_50k" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4458,51 +6070,59 @@
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="virtuoso_613_10k" connectionId="18" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="virtuoso_613_10k" connectionId="20" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="virtuoso_613_50k" connectionId="20" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="virtuoso_613_50k" connectionId="22" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="virtuoso_613_250k" connectionId="19" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="virtuoso_613_250k" connectionId="21" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tdb_50k" connectionId="17" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tdb_50k" connectionId="19" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="dotnetrdf_070_mem_10k" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="owlim_lite_10k" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="owlim_lite_50k" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_10k" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_10k" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_50k" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_50k" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_250k" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_250k" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_mem_10k" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_mem_10k" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_mem_50k" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_mem_50k" connectionId="17" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_mem_250k" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stardog_mem_250k" connectionId="16" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sesame_mem_10k" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sesame_mem_10k" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4829,7 +6449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -7526,7 +9146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -10222,7 +11842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -12916,7 +14536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -15610,7 +17230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -20999,7 +22619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -22343,10 +23965,2704 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:L65"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>39.260784999999998</v>
+      </c>
+      <c r="B2">
+        <v>1.706990652</v>
+      </c>
+      <c r="C2">
+        <v>370.08593099999899</v>
+      </c>
+      <c r="D2">
+        <v>16.090692652000001</v>
+      </c>
+      <c r="E2">
+        <v>16.067183788924499</v>
+      </c>
+      <c r="F2">
+        <v>14.983824</v>
+      </c>
+      <c r="G2">
+        <v>18.165807999999998</v>
+      </c>
+      <c r="H2" s="1">
+        <v>771163535.37240005</v>
+      </c>
+      <c r="I2">
+        <v>0.878159174280153</v>
+      </c>
+      <c r="J2">
+        <v>223.73182297733601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1.7361120000000001</v>
+      </c>
+      <c r="C21">
+        <v>14.893750000000001</v>
+      </c>
+      <c r="D21">
+        <v>3.8869999999999998E-3</v>
+      </c>
+      <c r="E21">
+        <v>11.464487999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1.7145969999999999</v>
+      </c>
+      <c r="C22">
+        <v>14.983824</v>
+      </c>
+      <c r="D22">
+        <v>3.594E-3</v>
+      </c>
+      <c r="E22">
+        <v>11.549681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1.730715</v>
+      </c>
+      <c r="C23">
+        <v>15.164135999999999</v>
+      </c>
+      <c r="D23">
+        <v>2.745E-3</v>
+      </c>
+      <c r="E23">
+        <v>11.666351000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>1.6976549999999999</v>
+      </c>
+      <c r="C24">
+        <v>15.125921</v>
+      </c>
+      <c r="D24">
+        <v>2.9589999999999998E-3</v>
+      </c>
+      <c r="E24">
+        <v>11.725161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1.7471779999999999</v>
+      </c>
+      <c r="C25">
+        <v>15.185036999999999</v>
+      </c>
+      <c r="D25">
+        <v>3.4060000000000002E-3</v>
+      </c>
+      <c r="E25">
+        <v>11.634986999999899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1.7199420000000001</v>
+      </c>
+      <c r="C26">
+        <v>15.432245999999999</v>
+      </c>
+      <c r="D26">
+        <v>2.7290000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>11.923742000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1.72241799999999</v>
+      </c>
+      <c r="C27">
+        <v>15.294497</v>
+      </c>
+      <c r="D27">
+        <v>3.2060000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>11.773187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>1.718899</v>
+      </c>
+      <c r="C28">
+        <v>15.321175999999999</v>
+      </c>
+      <c r="D28">
+        <v>2.5240000000000002E-3</v>
+      </c>
+      <c r="E28">
+        <v>11.863839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>1.6780809999999999</v>
+      </c>
+      <c r="C29">
+        <v>15.161735</v>
+      </c>
+      <c r="D29">
+        <v>2.5349999999999999E-3</v>
+      </c>
+      <c r="E29">
+        <v>11.715256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>1.7014590000000001</v>
+      </c>
+      <c r="C30">
+        <v>15.263123</v>
+      </c>
+      <c r="D30">
+        <v>2.5490000000000001E-3</v>
+      </c>
+      <c r="E30">
+        <v>11.806937</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>1.818101</v>
+      </c>
+      <c r="C31">
+        <v>16.606712999999999</v>
+      </c>
+      <c r="D31">
+        <v>2.4169999999999999E-3</v>
+      </c>
+      <c r="E31">
+        <v>12.8930519999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>1.6992769999999999</v>
+      </c>
+      <c r="C32">
+        <v>17.439565999999999</v>
+      </c>
+      <c r="D32">
+        <v>3.3089999999999999E-3</v>
+      </c>
+      <c r="E32">
+        <v>13.543781999999901</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>1.742372</v>
+      </c>
+      <c r="C33">
+        <v>15.648958</v>
+      </c>
+      <c r="D33">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="E33">
+        <v>12.133314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>1.6976500000000001</v>
+      </c>
+      <c r="C34">
+        <v>15.903483</v>
+      </c>
+      <c r="D34">
+        <v>2.588E-3</v>
+      </c>
+      <c r="E34">
+        <v>12.377362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>1.7066399999999999</v>
+      </c>
+      <c r="C35">
+        <v>16.836487000000002</v>
+      </c>
+      <c r="D35">
+        <v>2.725E-3</v>
+      </c>
+      <c r="E35">
+        <v>13.389256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>1.668301</v>
+      </c>
+      <c r="C36">
+        <v>15.961983</v>
+      </c>
+      <c r="D36">
+        <v>3.0040000000000002E-3</v>
+      </c>
+      <c r="E36">
+        <v>12.530314000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>1.686204</v>
+      </c>
+      <c r="C37">
+        <v>16.515682000000002</v>
+      </c>
+      <c r="D37">
+        <v>3.2039999999999998E-3</v>
+      </c>
+      <c r="E37">
+        <v>13.074455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>1.6696849999999901</v>
+      </c>
+      <c r="C38">
+        <v>16.304172999999999</v>
+      </c>
+      <c r="D38">
+        <v>2.7039999999999998E-3</v>
+      </c>
+      <c r="E38">
+        <v>12.895349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>1.665753</v>
+      </c>
+      <c r="C39">
+        <v>16.368224999999999</v>
+      </c>
+      <c r="D39">
+        <v>2.4849999999999998E-3</v>
+      </c>
+      <c r="E39">
+        <v>12.954010999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>1.685403</v>
+      </c>
+      <c r="C40">
+        <v>16.201073999999998</v>
+      </c>
+      <c r="D40">
+        <v>2.5230000000000001E-3</v>
+      </c>
+      <c r="E40">
+        <v>12.759066000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>1.6617819999999901</v>
+      </c>
+      <c r="C41">
+        <v>18.165807999999998</v>
+      </c>
+      <c r="D41">
+        <v>2.7320000000000001E-3</v>
+      </c>
+      <c r="E41">
+        <v>14.742939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>1.7598609999999999</v>
+      </c>
+      <c r="C42">
+        <v>17.401851999999899</v>
+      </c>
+      <c r="D42">
+        <v>2.4819999999999998E-3</v>
+      </c>
+      <c r="E42">
+        <v>13.391923999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>1.6715819999999999</v>
+      </c>
+      <c r="C43">
+        <v>18.823698</v>
+      </c>
+      <c r="D43">
+        <v>2.4809999999999902E-3</v>
+      </c>
+      <c r="E43">
+        <v>15.395262000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44">
+        <v>1.675589</v>
+      </c>
+      <c r="C44">
+        <v>16.621756000000001</v>
+      </c>
+      <c r="D44">
+        <v>2.483E-3</v>
+      </c>
+      <c r="E44">
+        <v>13.195548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45">
+        <v>1.6932229999999999</v>
+      </c>
+      <c r="C45">
+        <v>17.178476</v>
+      </c>
+      <c r="D45">
+        <v>2.4120000000000001E-3</v>
+      </c>
+      <c r="E45">
+        <v>13.730529000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>8.3501999999999896E-2</v>
+      </c>
+      <c r="C49">
+        <v>3.6305209999999998E-3</v>
+      </c>
+      <c r="D49">
+        <v>8.4998999999999894E-2</v>
+      </c>
+      <c r="E49">
+        <v>3.695608E-3</v>
+      </c>
+      <c r="F49">
+        <v>3588357.5383977098</v>
+      </c>
+      <c r="G49">
+        <v>2.908E-3</v>
+      </c>
+      <c r="H49">
+        <v>6.2259999999999998E-3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>9.3621797731568997E-16</v>
+      </c>
+      <c r="J49" s="1">
+        <v>9.6758357639828104E-4</v>
+      </c>
+      <c r="K49">
+        <v>270.591469658037</v>
+      </c>
+      <c r="L49">
+        <v>974129.29076893395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>0.19504099999999999</v>
+      </c>
+      <c r="C50">
+        <v>8.4800429999999996E-3</v>
+      </c>
+      <c r="D50">
+        <v>0.33492099999999903</v>
+      </c>
+      <c r="E50">
+        <v>1.45617819999999E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>14380855.4661179</v>
+      </c>
+      <c r="G50">
+        <v>1.23369999999999E-2</v>
+      </c>
+      <c r="H50">
+        <v>2.0936E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5.8851862570888401E-15</v>
+      </c>
+      <c r="J50">
+        <v>2.42594028308382E-3</v>
+      </c>
+      <c r="K50">
+        <v>68.672913795852693</v>
+      </c>
+      <c r="L50">
+        <v>247222.48966506901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>0.11147700000000001</v>
+      </c>
+      <c r="C51">
+        <v>4.8468260000000003E-3</v>
+      </c>
+      <c r="D51">
+        <v>0.32630799999999999</v>
+      </c>
+      <c r="E51">
+        <v>1.4187304E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>13923286.4391854</v>
+      </c>
+      <c r="G51">
+        <v>1.1762999999999999E-2</v>
+      </c>
+      <c r="H51">
+        <v>2.3907000000000001E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>8.9649509943289204E-15</v>
+      </c>
+      <c r="J51">
+        <v>2.9941528007649998E-3</v>
+      </c>
+      <c r="K51">
+        <v>70.485555254190601</v>
+      </c>
+      <c r="L51">
+        <v>253747.99891508601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>0.115277</v>
+      </c>
+      <c r="C52">
+        <v>5.0120429999999999E-3</v>
+      </c>
+      <c r="D52">
+        <v>0.117086</v>
+      </c>
+      <c r="E52">
+        <v>5.0906950000000001E-3</v>
+      </c>
+      <c r="F52">
+        <v>4941161.5289063901</v>
+      </c>
+      <c r="G52">
+        <v>3.8959999999999902E-3</v>
+      </c>
+      <c r="H52">
+        <v>8.1329999999999996E-3</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1.74642116824196E-15</v>
+      </c>
+      <c r="J52">
+        <v>1.3215222919958499E-3</v>
+      </c>
+      <c r="K52">
+        <v>196.436832298929</v>
+      </c>
+      <c r="L52">
+        <v>707172.59627614694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53">
+        <v>0.112951</v>
+      </c>
+      <c r="C53">
+        <v>4.9109130000000003E-3</v>
+      </c>
+      <c r="D53">
+        <v>0.114013</v>
+      </c>
+      <c r="E53">
+        <v>4.9570860000000003E-3</v>
+      </c>
+      <c r="F53">
+        <v>4798712.2662609797</v>
+      </c>
+      <c r="G53">
+        <v>3.761E-3</v>
+      </c>
+      <c r="H53">
+        <v>8.2299999999999995E-3</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1.8627788620037801E-15</v>
+      </c>
+      <c r="J53">
+        <v>1.36483656970487E-3</v>
+      </c>
+      <c r="K53">
+        <v>201.731420435312</v>
+      </c>
+      <c r="L53">
+        <v>726233.11356712296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54">
+        <v>1.222567</v>
+      </c>
+      <c r="C54">
+        <v>5.3155085999999997E-2</v>
+      </c>
+      <c r="D54">
+        <v>289.27004199999999</v>
+      </c>
+      <c r="E54">
+        <v>12.576958347</v>
+      </c>
+      <c r="F54" s="1">
+        <v>12550060485.6075</v>
+      </c>
+      <c r="G54">
+        <v>11.549681</v>
+      </c>
+      <c r="H54">
+        <v>14.742939</v>
+      </c>
+      <c r="I54" s="1">
+        <v>6.9307254830666104E-10</v>
+      </c>
+      <c r="J54">
+        <v>0.83250978871521997</v>
+      </c>
+      <c r="K54">
+        <v>7.9510480388808105E-2</v>
+      </c>
+      <c r="L54">
+        <v>286.237729399709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55">
+        <v>20.892067000000001</v>
+      </c>
+      <c r="C55">
+        <v>0.90835073899999996</v>
+      </c>
+      <c r="D55">
+        <v>43.979214999999897</v>
+      </c>
+      <c r="E55">
+        <v>1.9121397819999999</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1911015203.4707501</v>
+      </c>
+      <c r="G55">
+        <v>1.8561719999999999</v>
+      </c>
+      <c r="H55">
+        <v>2.2036359999999999</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4.6335998227788204E-12</v>
+      </c>
+      <c r="J55">
+        <v>6.8070550334038193E-2</v>
+      </c>
+      <c r="K55">
+        <v>0.522974318830421</v>
+      </c>
+      <c r="L55">
+        <v>1882.70754778951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>3.2079520000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.13947617299999901</v>
+      </c>
+      <c r="D56">
+        <v>6.7662240000000002</v>
+      </c>
+      <c r="E56">
+        <v>0.29418365200000002</v>
+      </c>
+      <c r="F56" s="1">
+        <v>293617668.950445</v>
+      </c>
+      <c r="G56">
+        <v>0.28528500000000001</v>
+      </c>
+      <c r="H56">
+        <v>0.38600999999999902</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3.94898544574668E-13</v>
+      </c>
+      <c r="J56">
+        <v>1.9872054362211001E-2</v>
+      </c>
+      <c r="K56">
+        <v>3.3992371540754398</v>
+      </c>
+      <c r="L56">
+        <v>12237.253754671499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57">
+        <v>3.4433799999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.149712173</v>
+      </c>
+      <c r="D57">
+        <v>18.422767</v>
+      </c>
+      <c r="E57">
+        <v>0.80098986900000002</v>
+      </c>
+      <c r="F57" s="1">
+        <v>800706763.83508003</v>
+      </c>
+      <c r="G57">
+        <v>0.77849900000000005</v>
+      </c>
+      <c r="H57">
+        <v>0.85649299999999995</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4.6298749046124701E-13</v>
+      </c>
+      <c r="J57">
+        <v>2.1517144105602098E-2</v>
+      </c>
+      <c r="K57">
+        <v>1.24845524107371</v>
+      </c>
+      <c r="L57">
+        <v>4494.4388678653804</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>8.1882889999999993</v>
+      </c>
+      <c r="C58">
+        <v>0.356012565</v>
+      </c>
+      <c r="D58">
+        <v>8.1893549999999902</v>
+      </c>
+      <c r="E58">
+        <v>0.35605891299999998</v>
+      </c>
+      <c r="F58" s="1">
+        <v>355850202.877473</v>
+      </c>
+      <c r="G58">
+        <v>0.34638000000000002</v>
+      </c>
+      <c r="H58">
+        <v>0.39688600000000002</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1.5543231660113401E-13</v>
+      </c>
+      <c r="J58">
+        <v>1.24672497609189E-2</v>
+      </c>
+      <c r="K58">
+        <v>2.8085239927696999</v>
+      </c>
+      <c r="L58">
+        <v>10110.686373970901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59">
+        <v>0.26916699999999999</v>
+      </c>
+      <c r="C59">
+        <v>1.1702913000000001E-2</v>
+      </c>
+      <c r="D59">
+        <v>0.29735400000000001</v>
+      </c>
+      <c r="E59">
+        <v>1.29284339999999E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>12794782.950091399</v>
+      </c>
+      <c r="G59">
+        <v>1.0454E-2</v>
+      </c>
+      <c r="H59">
+        <v>1.7870999999999901E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>3.6668685066162496E-15</v>
+      </c>
+      <c r="J59">
+        <v>1.91490691852535E-3</v>
+      </c>
+      <c r="K59">
+        <v>77.348888504206997</v>
+      </c>
+      <c r="L59">
+        <v>278455.99861514498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60">
+        <v>0.62427099999999902</v>
+      </c>
+      <c r="C60">
+        <v>2.7142217E-2</v>
+      </c>
+      <c r="D60">
+        <v>0.62585000000000002</v>
+      </c>
+      <c r="E60">
+        <v>2.7210868999999999E-2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>27053152.226208299</v>
+      </c>
+      <c r="G60">
+        <v>2.4521999999999999E-2</v>
+      </c>
+      <c r="H60">
+        <v>3.6281000000000001E-2</v>
+      </c>
+      <c r="I60" s="1">
+        <v>9.5333655047258998E-15</v>
+      </c>
+      <c r="J60">
+        <v>3.0876148569285401E-3</v>
+      </c>
+      <c r="K60">
+        <v>36.750020736199197</v>
+      </c>
+      <c r="L60">
+        <v>132300.07465031699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61">
+        <v>8.3821999999999994E-2</v>
+      </c>
+      <c r="C61">
+        <v>3.6444339999999898E-3</v>
+      </c>
+      <c r="D61">
+        <v>0.10853400000000001</v>
+      </c>
+      <c r="E61">
+        <v>4.7188689999999997E-3</v>
+      </c>
+      <c r="F61">
+        <v>4632771.1485620504</v>
+      </c>
+      <c r="G61">
+        <v>3.588E-3</v>
+      </c>
+      <c r="H61">
+        <v>6.9899999999999997E-3</v>
+      </c>
+      <c r="I61" s="1">
+        <v>9.0780959168241896E-16</v>
+      </c>
+      <c r="J61" s="1">
+        <v>9.5279042379865396E-4</v>
+      </c>
+      <c r="K61">
+        <v>211.91518560909401</v>
+      </c>
+      <c r="L61">
+        <v>762894.66819273797</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62">
+        <v>0.27450600000000003</v>
+      </c>
+      <c r="C62">
+        <v>1.1935042999999999E-2</v>
+      </c>
+      <c r="D62">
+        <v>0.27652899999999903</v>
+      </c>
+      <c r="E62">
+        <v>1.20229999999999E-2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>11639490.6851009</v>
+      </c>
+      <c r="G62">
+        <v>9.8980000000000005E-3</v>
+      </c>
+      <c r="H62">
+        <v>2.9298999999999999E-2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1.53858568695652E-14</v>
+      </c>
+      <c r="J62">
+        <v>3.9224809584706899E-3</v>
+      </c>
+      <c r="K62">
+        <v>83.173916659735497</v>
+      </c>
+      <c r="L62">
+        <v>299426.09997504699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>8.4487999999999994E-2</v>
+      </c>
+      <c r="C63">
+        <v>3.6733909999999998E-3</v>
+      </c>
+      <c r="D63">
+        <v>8.4487999999999994E-2</v>
+      </c>
+      <c r="E63">
+        <v>3.6733909999999998E-3</v>
+      </c>
+      <c r="F63">
+        <v>3645192.8461976899</v>
+      </c>
+      <c r="G63">
+        <v>3.2100000000000002E-3</v>
+      </c>
+      <c r="H63">
+        <v>4.947E-3</v>
+      </c>
+      <c r="I63" s="1">
+        <v>2.30527542533081E-16</v>
+      </c>
+      <c r="J63" s="1">
+        <v>4.80132838423994E-4</v>
+      </c>
+      <c r="K63">
+        <v>272.228031265933</v>
+      </c>
+      <c r="L63">
+        <v>980020.91255736095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64">
+        <v>0.148947</v>
+      </c>
+      <c r="C64">
+        <v>6.4759559999999997E-3</v>
+      </c>
+      <c r="D64">
+        <v>0.148947</v>
+      </c>
+      <c r="E64">
+        <v>6.4759559999999997E-3</v>
+      </c>
+      <c r="F64">
+        <v>6355774.3843331197</v>
+      </c>
+      <c r="G64">
+        <v>5.3449999999999999E-3</v>
+      </c>
+      <c r="H64">
+        <v>1.0470999999999999E-2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1.9224386502835501E-15</v>
+      </c>
+      <c r="J64">
+        <v>1.3865203389361201E-3</v>
+      </c>
+      <c r="K64">
+        <v>154.417355522489</v>
+      </c>
+      <c r="L64">
+        <v>555902.47988096206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65">
+        <v>7.1155999999999997E-2</v>
+      </c>
+      <c r="C65">
+        <v>3.0937389999999999E-3</v>
+      </c>
+      <c r="D65">
+        <v>7.1155999999999997E-2</v>
+      </c>
+      <c r="E65">
+        <v>3.0937389999999999E-3</v>
+      </c>
+      <c r="F65">
+        <v>2982372.8347690799</v>
+      </c>
+      <c r="G65">
+        <v>2.4169999999999999E-3</v>
+      </c>
+      <c r="H65">
+        <v>5.28E-3</v>
+      </c>
+      <c r="I65" s="1">
+        <v>8.8072080151228698E-16</v>
+      </c>
+      <c r="J65" s="1">
+        <v>9.3846726182232197E-4</v>
+      </c>
+      <c r="K65">
+        <v>323.23347250689199</v>
+      </c>
+      <c r="L65">
+        <v>1163640.5010248099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L65"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>4598.0607620000001</v>
+      </c>
+      <c r="B2">
+        <v>199.91568530399999</v>
+      </c>
+      <c r="C2">
+        <v>10472.09417</v>
+      </c>
+      <c r="D2">
+        <v>455.308442173</v>
+      </c>
+      <c r="E2">
+        <v>454.89868732580499</v>
+      </c>
+      <c r="F2">
+        <v>430.601158</v>
+      </c>
+      <c r="G2">
+        <v>485.771907</v>
+      </c>
+      <c r="H2" s="1">
+        <v>372711925492.54102</v>
+      </c>
+      <c r="I2">
+        <v>19.305748508994402</v>
+      </c>
+      <c r="J2">
+        <v>7.90672798162643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>37.749634</v>
+      </c>
+      <c r="C21">
+        <v>434.38027</v>
+      </c>
+      <c r="D21">
+        <v>3.6059999999999998E-3</v>
+      </c>
+      <c r="E21">
+        <v>287.67154399999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>37.928720999999904</v>
+      </c>
+      <c r="C22">
+        <v>426.351427</v>
+      </c>
+      <c r="D22">
+        <v>5.1769999999999898E-3</v>
+      </c>
+      <c r="E22">
+        <v>279.230245999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>37.755197000000003</v>
+      </c>
+      <c r="C23">
+        <v>431.24908199999999</v>
+      </c>
+      <c r="D23">
+        <v>5.2579999999999997E-3</v>
+      </c>
+      <c r="E23">
+        <v>285.430701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>351.387518</v>
+      </c>
+      <c r="C24">
+        <v>463.938714</v>
+      </c>
+      <c r="D24">
+        <v>3.803E-3</v>
+      </c>
+      <c r="E24">
+        <v>300.000767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>354.03081600000002</v>
+      </c>
+      <c r="C25">
+        <v>485.771907</v>
+      </c>
+      <c r="D25">
+        <v>4.2220000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <v>300.000800999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>345.47608299999899</v>
+      </c>
+      <c r="C26">
+        <v>463.77577100000002</v>
+      </c>
+      <c r="D26">
+        <v>4.9069999999999999E-3</v>
+      </c>
+      <c r="E26">
+        <v>300.00155599999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>348.36866099999997</v>
+      </c>
+      <c r="C27">
+        <v>469.77513399999998</v>
+      </c>
+      <c r="D27">
+        <v>2.738E-3</v>
+      </c>
+      <c r="E27">
+        <v>300.00079599999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>344.038072</v>
+      </c>
+      <c r="C28">
+        <v>487.91038400000002</v>
+      </c>
+      <c r="D28">
+        <v>2.823E-3</v>
+      </c>
+      <c r="E28">
+        <v>300.00176299999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>347.38139100000001</v>
+      </c>
+      <c r="C29">
+        <v>471.300726</v>
+      </c>
+      <c r="D29">
+        <v>3.8340000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>300.00050900000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>342.59999099999999</v>
+      </c>
+      <c r="C30">
+        <v>464.307861</v>
+      </c>
+      <c r="D30">
+        <v>3.0369999999999898E-3</v>
+      </c>
+      <c r="E30">
+        <v>300.00120899999899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>344.17913099999998</v>
+      </c>
+      <c r="C31">
+        <v>476.93932999999998</v>
+      </c>
+      <c r="D31">
+        <v>3.0200000000000001E-3</v>
+      </c>
+      <c r="E31">
+        <v>300.00084199999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>342.629277</v>
+      </c>
+      <c r="C32">
+        <v>460.336209</v>
+      </c>
+      <c r="D32">
+        <v>3.039E-3</v>
+      </c>
+      <c r="E32">
+        <v>300.00156800000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>40.067337000000002</v>
+      </c>
+      <c r="C33">
+        <v>434.77484399999997</v>
+      </c>
+      <c r="D33">
+        <v>3.5509999999999999E-3</v>
+      </c>
+      <c r="E33">
+        <v>282.85078199999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>39.057986999999997</v>
+      </c>
+      <c r="C34">
+        <v>430.601158</v>
+      </c>
+      <c r="D34">
+        <v>2.7679999999999901E-3</v>
+      </c>
+      <c r="E34">
+        <v>281.28800699999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>38.732305999999902</v>
+      </c>
+      <c r="C35">
+        <v>436.53330099999999</v>
+      </c>
+      <c r="D35">
+        <v>4.862E-3</v>
+      </c>
+      <c r="E35">
+        <v>286.73841299999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>38.340071999999999</v>
+      </c>
+      <c r="C36">
+        <v>432.38736599999999</v>
+      </c>
+      <c r="D36">
+        <v>3.5040000000000002E-3</v>
+      </c>
+      <c r="E36">
+        <v>282.93447300000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>40.447685</v>
+      </c>
+      <c r="C37">
+        <v>432.48510499999998</v>
+      </c>
+      <c r="D37">
+        <v>3.5130000000000001E-3</v>
+      </c>
+      <c r="E37">
+        <v>281.63711999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>39.858324999999901</v>
+      </c>
+      <c r="C38">
+        <v>435.800318</v>
+      </c>
+      <c r="D38">
+        <v>4.7359999999999998E-3</v>
+      </c>
+      <c r="E38">
+        <v>283.388588999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>39.797620000000002</v>
+      </c>
+      <c r="C39">
+        <v>436.17334499999998</v>
+      </c>
+      <c r="D39">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E39">
+        <v>284.85903300000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>39.632787999999998</v>
+      </c>
+      <c r="C40">
+        <v>439.50415399999901</v>
+      </c>
+      <c r="D40">
+        <v>3.5239999999999998E-3</v>
+      </c>
+      <c r="E40">
+        <v>284.20617099999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>342.74689000000001</v>
+      </c>
+      <c r="C41">
+        <v>473.633094999999</v>
+      </c>
+      <c r="D41">
+        <v>3.3159999999999999E-3</v>
+      </c>
+      <c r="E41">
+        <v>300.00071200000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>343.644871999999</v>
+      </c>
+      <c r="C42">
+        <v>469.01669600000002</v>
+      </c>
+      <c r="D42">
+        <v>5.34199999999999E-3</v>
+      </c>
+      <c r="E42">
+        <v>300.00021500000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43">
+        <v>43.196531</v>
+      </c>
+      <c r="C43">
+        <v>467.221598999999</v>
+      </c>
+      <c r="D43">
+        <v>3.447E-3</v>
+      </c>
+      <c r="E43">
+        <v>297.01802500000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44">
+        <v>353.80807299999998</v>
+      </c>
+      <c r="C44">
+        <v>484.203778</v>
+      </c>
+      <c r="D44">
+        <v>3.7439999999999999E-3</v>
+      </c>
+      <c r="E44">
+        <v>300.00152500000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45">
+        <v>347.17257699999999</v>
+      </c>
+      <c r="C45">
+        <v>477.98440699999998</v>
+      </c>
+      <c r="D45">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="E45">
+        <v>300.00094999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>0.110356</v>
+      </c>
+      <c r="C49">
+        <v>4.798086E-3</v>
+      </c>
+      <c r="D49">
+        <v>0.112027</v>
+      </c>
+      <c r="E49">
+        <v>4.8707389999999998E-3</v>
+      </c>
+      <c r="F49">
+        <v>4740508.98171484</v>
+      </c>
+      <c r="G49">
+        <v>3.4879999999999898E-3</v>
+      </c>
+      <c r="H49">
+        <v>6.8110000000000002E-3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1.2991943667296699E-15</v>
+      </c>
+      <c r="J49">
+        <v>1.1398220767863999E-3</v>
+      </c>
+      <c r="K49">
+        <v>205.30765454687599</v>
+      </c>
+      <c r="L49">
+        <v>739107.55636875599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>0.69189599999999996</v>
+      </c>
+      <c r="C50">
+        <v>3.0082433999999901E-2</v>
+      </c>
+      <c r="D50">
+        <v>1.943781</v>
+      </c>
+      <c r="E50">
+        <v>8.4512217000000001E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>82294640.597169593</v>
+      </c>
+      <c r="G50">
+        <v>7.1287999999999893E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.162079</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5.36159624257088E-13</v>
+      </c>
+      <c r="J50">
+        <v>2.31551209078486E-2</v>
+      </c>
+      <c r="K50">
+        <v>11.8326087694516</v>
+      </c>
+      <c r="L50">
+        <v>42597.391570025902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>0.14358899999999999</v>
+      </c>
+      <c r="C51">
+        <v>6.2430000000000003E-3</v>
+      </c>
+      <c r="D51">
+        <v>1.2827379999999999</v>
+      </c>
+      <c r="E51">
+        <v>5.5771216999999998E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>54492992.369834699</v>
+      </c>
+      <c r="G51">
+        <v>4.5189E-2</v>
+      </c>
+      <c r="H51">
+        <v>8.4872000000000003E-2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1.68508912170132E-13</v>
+      </c>
+      <c r="J51">
+        <v>1.2981098265175101E-2</v>
+      </c>
+      <c r="K51">
+        <v>17.9303958886176</v>
+      </c>
+      <c r="L51">
+        <v>64549.425199023302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>0.246611</v>
+      </c>
+      <c r="C52">
+        <v>1.0722216999999999E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.249113</v>
+      </c>
+      <c r="E52">
+        <v>1.0831E-2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>10682328.428103199</v>
+      </c>
+      <c r="G52">
+        <v>8.1949999999999992E-3</v>
+      </c>
+      <c r="H52">
+        <v>1.4759E-2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3.2842095652173898E-15</v>
+      </c>
+      <c r="J52">
+        <v>1.81223882676025E-3</v>
+      </c>
+      <c r="K52">
+        <v>92.327578247622498</v>
+      </c>
+      <c r="L52">
+        <v>332379.28169144102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53">
+        <v>0.21773400000000001</v>
+      </c>
+      <c r="C53">
+        <v>9.4666949999999903E-3</v>
+      </c>
+      <c r="D53">
+        <v>0.21879499999999999</v>
+      </c>
+      <c r="E53">
+        <v>9.5128260000000003E-3</v>
+      </c>
+      <c r="F53">
+        <v>9296822.6917967498</v>
+      </c>
+      <c r="G53">
+        <v>7.3709999999999999E-3</v>
+      </c>
+      <c r="H53">
+        <v>1.3264E-2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>4.2935651001890302E-15</v>
+      </c>
+      <c r="J53">
+        <v>2.0720919622905301E-3</v>
+      </c>
+      <c r="K53">
+        <v>105.121233164571</v>
+      </c>
+      <c r="L53">
+        <v>378436.43939245801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54">
+        <v>3601.4010320000002</v>
+      </c>
+      <c r="C54">
+        <v>156.58265356499999</v>
+      </c>
+      <c r="D54">
+        <v>6738.0343080000002</v>
+      </c>
+      <c r="E54">
+        <v>292.95801339100001</v>
+      </c>
+      <c r="F54" s="1">
+        <v>292850817073.97601</v>
+      </c>
+      <c r="G54">
+        <v>281.28800699999999</v>
+      </c>
+      <c r="H54">
+        <v>300.00156800000002</v>
+      </c>
+      <c r="I54" s="1">
+        <v>6.2423989977810695E-8</v>
+      </c>
+      <c r="J54">
+        <v>7.9008853920184503</v>
+      </c>
+      <c r="K54">
+        <v>3.4134584284790902E-3</v>
+      </c>
+      <c r="L54">
+        <v>12.288450342524699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55">
+        <v>320.27565800000002</v>
+      </c>
+      <c r="C55">
+        <v>13.925028608</v>
+      </c>
+      <c r="D55">
+        <v>2019.4511339999999</v>
+      </c>
+      <c r="E55">
+        <v>87.802223217000005</v>
+      </c>
+      <c r="F55" s="1">
+        <v>87622889524.303696</v>
+      </c>
+      <c r="G55">
+        <v>80.200899000000007</v>
+      </c>
+      <c r="H55">
+        <v>102.105724</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3.2316120289294298E-8</v>
+      </c>
+      <c r="J55">
+        <v>5.6847269318142502</v>
+      </c>
+      <c r="K55">
+        <v>1.13892332490093E-2</v>
+      </c>
+      <c r="L55">
+        <v>41.0012396964337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56">
+        <v>36.037851000000003</v>
+      </c>
+      <c r="C56">
+        <v>1.5668630859999999</v>
+      </c>
+      <c r="D56">
+        <v>242.54014100000001</v>
+      </c>
+      <c r="E56">
+        <v>10.545223521</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10476856777.614201</v>
+      </c>
+      <c r="G56">
+        <v>9.3903859999999995</v>
+      </c>
+      <c r="H56">
+        <v>14.747794000000001</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1.6371627612343299E-9</v>
+      </c>
+      <c r="J56">
+        <v>1.2795166123323001</v>
+      </c>
+      <c r="K56">
+        <v>9.4829663686936197E-2</v>
+      </c>
+      <c r="L56">
+        <v>341.38678927297002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57">
+        <v>17.910558999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.77871995599999999</v>
+      </c>
+      <c r="D57">
+        <v>851.70956999999999</v>
+      </c>
+      <c r="E57">
+        <v>37.030850868999998</v>
+      </c>
+      <c r="F57" s="1">
+        <v>36867764590.211601</v>
+      </c>
+      <c r="G57">
+        <v>33.201985999999998</v>
+      </c>
+      <c r="H57">
+        <v>46.302216000000001</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1.26680515086053E-8</v>
+      </c>
+      <c r="J57">
+        <v>3.5592206321897599</v>
+      </c>
+      <c r="K57">
+        <v>2.7004510469867099E-2</v>
+      </c>
+      <c r="L57">
+        <v>97.216237691521698</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>504.90058599999998</v>
+      </c>
+      <c r="C58">
+        <v>21.952199390999901</v>
+      </c>
+      <c r="D58">
+        <v>504.90229199999999</v>
+      </c>
+      <c r="E58">
+        <v>21.952273564999999</v>
+      </c>
+      <c r="F58" s="1">
+        <v>21817109940.160301</v>
+      </c>
+      <c r="G58">
+        <v>19.299847</v>
+      </c>
+      <c r="H58">
+        <v>28.890941999999999</v>
+      </c>
+      <c r="I58" s="1">
+        <v>6.5627573226728504E-9</v>
+      </c>
+      <c r="J58">
+        <v>2.5617879152406098</v>
+      </c>
+      <c r="K58">
+        <v>4.5553368175693998E-2</v>
+      </c>
+      <c r="L58">
+        <v>163.992125432498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59">
+        <v>0.55629600000000001</v>
+      </c>
+      <c r="C59">
+        <v>2.4186782E-2</v>
+      </c>
+      <c r="D59">
+        <v>0.63502000000000003</v>
+      </c>
+      <c r="E59">
+        <v>2.7609564999999999E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>27318711.785433698</v>
+      </c>
+      <c r="G59">
+        <v>2.2629E-2</v>
+      </c>
+      <c r="H59">
+        <v>4.0473999999999899E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1.82871467674858E-14</v>
+      </c>
+      <c r="J59">
+        <v>4.2763473628186204E-3</v>
+      </c>
+      <c r="K59">
+        <v>36.219331959775502</v>
+      </c>
+      <c r="L59">
+        <v>130389.59505519101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60">
+        <v>2.6504430000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.11523665199999999</v>
+      </c>
+      <c r="D60">
+        <v>2.6520459999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.115306347</v>
+      </c>
+      <c r="F60" s="1">
+        <v>114273735.615191</v>
+      </c>
+      <c r="G60">
+        <v>0.10492</v>
+      </c>
+      <c r="H60">
+        <v>0.16239400000000001</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2.7829118431379898E-13</v>
+      </c>
+      <c r="J60">
+        <v>1.6682061752487199E-2</v>
+      </c>
+      <c r="K60">
+        <v>8.6725494824669092</v>
+      </c>
+      <c r="L60">
+        <v>31221.178136880801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61">
+        <v>0.113257</v>
+      </c>
+      <c r="C61">
+        <v>4.9242169999999998E-3</v>
+      </c>
+      <c r="D61">
+        <v>0.19045099999999901</v>
+      </c>
+      <c r="E61">
+        <v>8.2804780000000008E-3</v>
+      </c>
+      <c r="F61">
+        <v>8080467.5809938703</v>
+      </c>
+      <c r="G61">
+        <v>5.339E-3</v>
+      </c>
+      <c r="H61">
+        <v>1.2063000000000001E-2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>3.2977428582230601E-15</v>
+      </c>
+      <c r="J61">
+        <v>1.8159688483625101E-3</v>
+      </c>
+      <c r="K61">
+        <v>120.765975104335</v>
+      </c>
+      <c r="L61">
+        <v>434757.51037560799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62">
+        <v>1.3142229999999999</v>
+      </c>
+      <c r="C62">
+        <v>5.7140129999999997E-2</v>
+      </c>
+      <c r="D62">
+        <v>1.3165100000000001</v>
+      </c>
+      <c r="E62">
+        <v>5.7239564999999999E-2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>55976959.709448397</v>
+      </c>
+      <c r="G62">
+        <v>4.6704999999999899E-2</v>
+      </c>
+      <c r="H62">
+        <v>9.3386999999999998E-2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1.66262257550094E-13</v>
+      </c>
+      <c r="J62">
+        <v>1.2894272276871401E-2</v>
+      </c>
+      <c r="K62">
+        <v>17.470433257136001</v>
+      </c>
+      <c r="L62">
+        <v>62893.559725689702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63">
+        <v>91.698136000000005</v>
+      </c>
+      <c r="C63">
+        <v>3.986875478</v>
+      </c>
+      <c r="D63">
+        <v>91.698136000000005</v>
+      </c>
+      <c r="E63">
+        <v>3.986875478</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3891290123.87567</v>
+      </c>
+      <c r="G63">
+        <v>3.3208799999999998</v>
+      </c>
+      <c r="H63">
+        <v>6.7288249999999996</v>
+      </c>
+      <c r="I63" s="1">
+        <v>9.8101509932633592E-10</v>
+      </c>
+      <c r="J63">
+        <v>0.99046206354727995</v>
+      </c>
+      <c r="K63">
+        <v>0.25082298293942301</v>
+      </c>
+      <c r="L63">
+        <v>902.96273858192399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64">
+        <v>0.33559</v>
+      </c>
+      <c r="C64">
+        <v>1.4590868999999999E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.33559</v>
+      </c>
+      <c r="E64">
+        <v>1.4590868999999999E-2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>14464314.566841001</v>
+      </c>
+      <c r="G64">
+        <v>1.1887E-2</v>
+      </c>
+      <c r="H64">
+        <v>1.7520000000000001E-2</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3.6775687221171999E-15</v>
+      </c>
+      <c r="J64">
+        <v>1.91769880902012E-3</v>
+      </c>
+      <c r="K64">
+        <v>68.536013859078494</v>
+      </c>
+      <c r="L64">
+        <v>246729.64989268201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65">
+        <v>9.1171000000000002E-2</v>
+      </c>
+      <c r="C65">
+        <v>3.9639560000000003E-3</v>
+      </c>
+      <c r="D65">
+        <v>9.1171000000000002E-2</v>
+      </c>
+      <c r="E65">
+        <v>3.9639560000000003E-3</v>
+      </c>
+      <c r="F65">
+        <v>3868735.8501633899</v>
+      </c>
+      <c r="G65">
+        <v>2.738E-3</v>
+      </c>
+      <c r="H65">
+        <v>5.3359999999999996E-3</v>
+      </c>
+      <c r="I65" s="1">
+        <v>7.5065969376181498E-16</v>
+      </c>
+      <c r="J65" s="1">
+        <v>8.6640619443873704E-4</v>
+      </c>
+      <c r="K65">
+        <v>252.273234112588</v>
+      </c>
+      <c r="L65">
+        <v>908183.642805318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22434,22 +26750,6 @@
       <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="e">
-        <f>'[1]TDB 250k'!B2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" t="e">
-        <f>'[1]TDB 250k'!D2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" t="e">
-        <f>'[1]TDB 250k'!E2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" t="e">
-        <f>'[1]TDB 250k'!J2</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -22929,6 +27229,127 @@
       </c>
       <c r="B28" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
+        <f>'OWLIM Lite 10k'!B2</f>
+        <v>1.706990652</v>
+      </c>
+      <c r="D29">
+        <f>'OWLIM Lite 10k'!D2</f>
+        <v>16.090692652000001</v>
+      </c>
+      <c r="E29">
+        <f>'OWLIM Lite 10k'!E2</f>
+        <v>16.067183788924499</v>
+      </c>
+      <c r="F29">
+        <f>'OWLIM Lite 10k'!J2</f>
+        <v>223.73182297733601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <f>'OWLIM Lite 50k'!B2</f>
+        <v>199.91568530399999</v>
+      </c>
+      <c r="D30">
+        <f>'OWLIM Lite 50k'!D2</f>
+        <v>455.308442173</v>
+      </c>
+      <c r="E30">
+        <f>'OWLIM Lite 50k'!E2</f>
+        <v>454.89868732580499</v>
+      </c>
+      <c r="F30">
+        <f>'OWLIM Lite 50k'!J2</f>
+        <v>7.90672798162643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <f>MIN(D2,D5,D8,D11,D14,D17,D20,D23,D26,D29)</f>
+        <v>0.41082052099999999</v>
+      </c>
+      <c r="C41">
+        <f>MAX(D2,D5,D8,D11,D14,D17,D20,D23,D26,D29)</f>
+        <v>20.679973202999999</v>
+      </c>
+      <c r="D41">
+        <f>AVERAGE(D2,D5,D8,D11,D14,D17,D20,D23,D26,D29)</f>
+        <v>7.6668777081000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <f>MIN(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)</f>
+        <v>3.5963691299999998</v>
+      </c>
+      <c r="C42">
+        <f>MAX(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)</f>
+        <v>472.92379212999998</v>
+      </c>
+      <c r="D42">
+        <f>AVERAGE(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)</f>
+        <v>148.13743901444434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <f>MIN(D4,D7,D10,D13,D16,D19,D22,D25,D28,D31)</f>
+        <v>94.811962686000001</v>
+      </c>
+      <c r="C43">
+        <f>MAX(D4,D10,D13,D16,D19,D22,D25,D28,D31)</f>
+        <v>131.291330695</v>
+      </c>
+      <c r="D43">
+        <f>AVERAGE(D4,D7,D10,D13,D16,D19,D22,D25,D28,D31)</f>
+        <v>112.38169043133333</v>
       </c>
     </row>
   </sheetData>
@@ -22943,7 +27364,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
@@ -23545,27 +27986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -23589,7 +28010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -27630,7 +32051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -31671,7 +36092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/documents/reports/semtech2012/SemTech 2012 Results.xlsx
+++ b/documents/reports/semtech2012/SemTech 2012 Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="42580" windowHeight="22200" tabRatio="500" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="TDB 10k" sheetId="2" r:id="rId1"/>
@@ -31,12 +31,7 @@
     <sheet name="OWLIM Lite 50k" sheetId="28" r:id="rId22"/>
     <sheet name="Summary Comparison" sheetId="12" r:id="rId23"/>
     <sheet name="Query Comparison" sheetId="14" r:id="rId24"/>
-    <sheet name="Sanitised Summary Comparison" sheetId="25" r:id="rId25"/>
-    <sheet name="Sanitised Query Comparison" sheetId="26" r:id="rId26"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId27"/>
-  </externalReferences>
   <definedNames>
     <definedName name="bigdata_worm_10k" localSheetId="14">'Bigdata WORM 10k'!$A$1:$L$65</definedName>
     <definedName name="bigdata_worm_50k" localSheetId="15">'BigData WORM 50k'!$A$1:$L$65</definedName>
@@ -376,7 +371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="93">
   <si>
     <t>Total Response Time</t>
   </si>
@@ -1048,11 +1043,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2129274744"/>
-        <c:axId val="2129277992"/>
+        <c:axId val="-2130145192"/>
+        <c:axId val="-2130159016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129274744"/>
+        <c:axId val="-2130145192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129277992"/>
+        <c:crossAx val="-2130159016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1088,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129277992"/>
+        <c:axId val="-2130159016"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1119,7 +1114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129274744"/>
+        <c:crossAx val="-2130145192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,11 +1438,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146197448"/>
-        <c:axId val="-2146202920"/>
+        <c:axId val="-2130226440"/>
+        <c:axId val="-2130235736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146197448"/>
+        <c:axId val="-2130226440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146202920"/>
+        <c:crossAx val="-2130235736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1483,7 +1478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146202920"/>
+        <c:axId val="-2130235736"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1519,7 +1514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146197448"/>
+        <c:crossAx val="-2130226440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1858,11 +1853,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146255576"/>
-        <c:axId val="-2146261048"/>
+        <c:axId val="2136052120"/>
+        <c:axId val="2136057592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146255576"/>
+        <c:axId val="2136052120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,7 +1884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146261048"/>
+        <c:crossAx val="2136057592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1897,7 +1892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146261048"/>
+        <c:axId val="2136057592"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1927,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146255576"/>
+        <c:crossAx val="2136052120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,11 +3275,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142119496"/>
-        <c:axId val="-2142116584"/>
+        <c:axId val="-2129963704"/>
+        <c:axId val="-2129960760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142119496"/>
+        <c:axId val="-2129963704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,7 +3288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142116584"/>
+        <c:crossAx val="-2129960760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3301,7 +3296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142116584"/>
+        <c:axId val="-2129960760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,7 +3326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142119496"/>
+        <c:crossAx val="-2129963704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3396,7 +3391,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4096,11 +4090,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2146225816"/>
-        <c:axId val="2075153960"/>
+        <c:axId val="-2129901512"/>
+        <c:axId val="-2129898568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2146225816"/>
+        <c:axId val="-2129901512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,7 +4103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075153960"/>
+        <c:crossAx val="-2129898568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4117,7 +4111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075153960"/>
+        <c:axId val="-2129898568"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4141,1567 +4135,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146225816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SP2B Query Mix Average Runtime (in Seconds) Comparison</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>TDB</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.724455869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>125.362848695</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Sesame Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$11:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.266848565</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>112.749644869</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Sesame Native</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$14:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>15.442357434</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>472.92379213</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Dydra</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$17:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9.277226304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.7278340859999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Bigdata WORM</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$20:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.464726304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>113.735311216999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Virtuoso 6.1.3</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$23:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.70468949</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.315573961</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>94.811962686</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>dotNetRDF Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$D$26:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20.679973203</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2144695752"/>
-        <c:axId val="-2144690264"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2144695752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dataset Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144690264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2144690264"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Runtime (Arithmetic) in Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144695752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SP2B Query Mixes per Hour Comparison</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>TDB</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>966.584147221103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.716641632471</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Sesame Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$11:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>843.714030427513</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.929147131086</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Sesame Native</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$14:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>233.125027405061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.61222010799239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Dydra</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$17:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>388.047017722076</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.926275486943</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Bigdata WORM</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$20:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>806.320422547451</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.6524389961128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Virtuoso 6.1.3</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$23:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2111.82154938961</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>207.905323156385</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.9698921740766</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>dotNetRDF Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$F$26:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>174.081463484573</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2144643608"/>
-        <c:axId val="-2144638120"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2144643608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dataset Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144638120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2144638120"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Query Mixes</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> per Hour</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144643608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SP2B Query Mix Average Response</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> (in Seconds) Comparison</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>TDB</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sanitised Summary Comparison'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10k</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50k</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.462149173</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>121.506312739</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Sesame Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$11:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.358126217</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.692348956</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Sesame Native</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$14:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.100502869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64.602141565</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Dydra</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$17:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.376073521</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.025702391</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Bigdata WORM</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$20:$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.877815956</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.754828913</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Virtuoso 6.1.3</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$23:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.57624616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.144235053</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88.400123554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>dotNetRDF Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sanitised Summary Comparison'!$C$26:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20.389302331</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2144592472"/>
-        <c:axId val="-2144586984"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2144592472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dataset Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144586984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2144586984"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Response Time (Arithmetic) in Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144592472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>SP2B 50k</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Runtime</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> per Query Comparison</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>TDB</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'TDB 10k'!$A$49:$A$65</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1.txt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.txt</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3a.txt</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3b.txt</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3c.txt</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.txt</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5a.txt</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5b.txt</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.txt</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.txt</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.txt</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.txt</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.txt</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.txt</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12a.txt</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12b.txt</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12c.txt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'TDB 50k'!$E$49:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.005865</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.148036565</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.050011608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.006051739</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.005501391</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.561325478</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>68.318797304</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22032026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.871820869</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.902203521</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02524513</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0658239559999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.00776226</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.013833347</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.00560813</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.007666782</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.005040217</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Sesame Mem</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sesame Mem 50k'!$E$49:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.004376217</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.083730956</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.031655913</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.004620869</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.004221478</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.771987391</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.12060313000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.165344347</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38.394305913</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.684565086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.976145782</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.025727173</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.007077434</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.014759391</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.008979</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.148270521</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.00350595599999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Sesame Native</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sesame Native 50k'!$E$49:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.00540791299999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.142747434</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.118616390999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00553791299999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.005441956</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.855605565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>266.140856173</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.38175426</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>151.834615739</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.557960565</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.885564652</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32.55473526</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.016338695</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.048350434</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.005853347</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.433383347</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.003964869</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Dydra</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dydra 50k'!$E$49:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.31225513</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.681942565</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.195029956</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.304213304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.305175043</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.787497478</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.957634478</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.550629913</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.948720391</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.70136526</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.116088173</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.383483782</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.581420521</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.349052</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.355294217</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.859149565</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.310972520999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>BigData WORM</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'BigData WORM 50k'!$E$49:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.018422913</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.130736826</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07975826</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.065542565</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.070499086</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.802534043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.189012565</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.117724172999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.732669478</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.112192086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15247926</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.086014782</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.013545826</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.075076652</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.043850608</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.040371869</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.026753913</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Virutoso 6.1.3</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Virtuoso 6.1.3 50k'!$E$49:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.004309305</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.501506983999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.087374123</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.004313407</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.00382978899999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.872507135</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18134482</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.344347586</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.89698189</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.107033724</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0586902339999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.179502615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.012751441</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.035840233</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0056392</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0108715729999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.003201452</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2144535384"/>
-        <c:axId val="-2144532248"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2144535384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144532248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2144532248"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144535384"/>
+        <c:crossAx val="-2129901512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5884,157 +4324,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TDB 250k"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26662,7 +24951,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27370,628 +25659,6 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2">
-        <f>'TDB 10k'!B2</f>
-        <v>3.4621491729999998</v>
-      </c>
-      <c r="D2">
-        <f>'TDB 10k'!D2</f>
-        <v>3.7244558689999998</v>
-      </c>
-      <c r="E2">
-        <f>'TDB 10k'!E2</f>
-        <v>3.7228868833536399</v>
-      </c>
-      <c r="F2">
-        <f>'TDB 10k'!J2</f>
-        <v>966.58414722110297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3">
-        <f>'TDB 50k'!B2</f>
-        <v>121.50631273899999</v>
-      </c>
-      <c r="D3">
-        <f>'TDB 50k'!D2</f>
-        <v>125.362848695</v>
-      </c>
-      <c r="E3">
-        <f>'TDB 50k'!E2</f>
-        <v>124.524660622165</v>
-      </c>
-      <c r="F3">
-        <f>'TDB 50k'!J2</f>
-        <v>28.716641632470999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="e">
-        <f>'[1]TDB 250k'!B2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" t="e">
-        <f>'[1]TDB 250k'!D2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" t="e">
-        <f>'[1]TDB 250k'!E2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" t="e">
-        <f>'[1]TDB 250k'!J2</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5">
-        <f>'Stardog Mem 10k'!B2</f>
-        <v>0.23386769499999999</v>
-      </c>
-      <c r="D5">
-        <f>'Stardog Mem 10k'!D2</f>
-        <v>0.41082052099999999</v>
-      </c>
-      <c r="E5">
-        <f>'Stardog Mem 10k'!E2</f>
-        <v>0.41075159602123501</v>
-      </c>
-      <c r="F5">
-        <f>'Stardog Mem 10k'!J2</f>
-        <v>8762.9507679826893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6">
-        <f>'Stardog Mem 50k'!B2</f>
-        <v>2.7700889129999999</v>
-      </c>
-      <c r="D6">
-        <f>'Stardog Mem 50k'!D2</f>
-        <v>3.5963691299999998</v>
-      </c>
-      <c r="E6">
-        <f>'Stardog Mem 50k'!E2</f>
-        <v>3.59630141759872</v>
-      </c>
-      <c r="F6">
-        <f>'Stardog Mem 50k'!J2</f>
-        <v>1001.00959325051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7">
-        <f>'Stardog Mem 250k'!B2</f>
-        <v>105.983957565</v>
-      </c>
-      <c r="D7">
-        <f>'Stardog Mem 250k'!D2</f>
-        <v>111.041777913</v>
-      </c>
-      <c r="E7">
-        <f>'Stardog Mem 250k'!E2</f>
-        <v>109.872958871009</v>
-      </c>
-      <c r="F7">
-        <f>'Stardog Mem 250k'!J2</f>
-        <v>32.420230184179502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8">
-        <f>'Stardog Disk 10k'!B2</f>
-        <v>0.35304191299999998</v>
-      </c>
-      <c r="D8">
-        <f>'Stardog Disk 10k'!D2</f>
-        <v>0.606986739</v>
-      </c>
-      <c r="E8">
-        <f>'Stardog Disk 10k'!E2</f>
-        <v>0.606500388627775</v>
-      </c>
-      <c r="F8">
-        <f>'Stardog Disk 10k'!J2</f>
-        <v>5930.9368206806903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9">
-        <f>'Stardog Disk 50k'!B2</f>
-        <v>5.0950188689999996</v>
-      </c>
-      <c r="D9">
-        <f>'Stardog Disk 50k'!D2</f>
-        <v>6.5171348690000004</v>
-      </c>
-      <c r="E9">
-        <f>'Stardog Disk 50k'!E2</f>
-        <v>6.5002796733624102</v>
-      </c>
-      <c r="F9">
-        <f>'Stardog Disk 50k'!J2</f>
-        <v>552.38998000855997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <f>'Stardog Disk 250k'!B2</f>
-        <v>125.082534346999</v>
-      </c>
-      <c r="D10">
-        <f>'Stardog Disk 250k'!D2</f>
-        <v>131.291330695</v>
-      </c>
-      <c r="E10">
-        <f>'Stardog Disk 250k'!E2</f>
-        <v>128.101781974923</v>
-      </c>
-      <c r="F10">
-        <f>'Stardog Disk 250k'!J2</f>
-        <v>27.419936875825201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11">
-        <f>'Sesame Mem 10k'!B2</f>
-        <v>1.3581262169999999</v>
-      </c>
-      <c r="D11">
-        <f>'Sesame Mem 10k'!D2</f>
-        <v>4.2668485650000001</v>
-      </c>
-      <c r="E11">
-        <f>'Sesame Mem 10k'!E2</f>
-        <v>4.2667514433053197</v>
-      </c>
-      <c r="F11">
-        <f>'Sesame Mem 10k'!J2</f>
-        <v>843.71403042751297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12">
-        <f>'Sesame Mem 50k'!B2</f>
-        <v>7.692348956</v>
-      </c>
-      <c r="D12">
-        <f>'Sesame Mem 50k'!D2</f>
-        <v>112.74964486899999</v>
-      </c>
-      <c r="E12">
-        <f>'Sesame Mem 50k'!E2</f>
-        <v>112.361492189675</v>
-      </c>
-      <c r="F12">
-        <f>'Sesame Mem 50k'!J2</f>
-        <v>31.929147131086001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14">
-        <f>'Sesame Native 10k'!B2</f>
-        <v>6.1005028689999996</v>
-      </c>
-      <c r="D14">
-        <f>'Sesame Native 10k'!D2</f>
-        <v>15.442357434</v>
-      </c>
-      <c r="E14">
-        <f>'Sesame Native 10k'!E2</f>
-        <v>15.4418042983212</v>
-      </c>
-      <c r="F14">
-        <f>'Sesame Native 10k'!J2</f>
-        <v>233.12502740506099</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15">
-        <f>'Sesame Native 50k'!B2</f>
-        <v>64.602141564999997</v>
-      </c>
-      <c r="D15">
-        <f>'Sesame Native 50k'!D2</f>
-        <v>472.92379212999998</v>
-      </c>
-      <c r="E15">
-        <f>'Sesame Native 50k'!E2</f>
-        <v>472.55256088737701</v>
-      </c>
-      <c r="F15">
-        <f>'Sesame Native 50k'!J2</f>
-        <v>7.6122201079923899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17">
-        <f>'Dydra 10k'!B2</f>
-        <v>5.3760735210000004</v>
-      </c>
-      <c r="D17">
-        <f>'Dydra 10k'!D2</f>
-        <v>9.2772263039999991</v>
-      </c>
-      <c r="E17">
-        <f>'Dydra 10k'!E2</f>
-        <v>9.2742726651433092</v>
-      </c>
-      <c r="F17">
-        <f>'Dydra 10k'!J2</f>
-        <v>388.04701772207602</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18">
-        <f>'Dydra 50k'!B2</f>
-        <v>15.025702390999999</v>
-      </c>
-      <c r="D18">
-        <f>'Dydra 50k'!D2</f>
-        <v>25.727834085999898</v>
-      </c>
-      <c r="E18">
-        <f>'Dydra 50k'!E2</f>
-        <v>25.721970637613602</v>
-      </c>
-      <c r="F18">
-        <f>'Dydra 50k'!J2</f>
-        <v>139.92627548694301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20">
-        <f>'Bigdata WORM 10k'!B2</f>
-        <v>2.8778159560000001</v>
-      </c>
-      <c r="D20">
-        <f>'Bigdata WORM 10k'!D2</f>
-        <v>4.464726304</v>
-      </c>
-      <c r="E20">
-        <f>'Bigdata WORM 10k'!E2</f>
-        <v>4.4541543353976802</v>
-      </c>
-      <c r="F20">
-        <f>'Bigdata WORM 10k'!J2</f>
-        <v>806.32042254745102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21">
-        <f>'BigData WORM 50k'!B2</f>
-        <v>28.754828913000001</v>
-      </c>
-      <c r="D21">
-        <f>'BigData WORM 50k'!D2</f>
-        <v>113.73531121699899</v>
-      </c>
-      <c r="E21">
-        <f>'BigData WORM 50k'!E2</f>
-        <v>108.081837496844</v>
-      </c>
-      <c r="F21">
-        <f>'BigData WORM 50k'!J2</f>
-        <v>31.652438996112799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23">
-        <f>'Virtuoso 6.1.3 10k'!B2</f>
-        <v>1.57624616</v>
-      </c>
-      <c r="D23">
-        <f>'Virtuoso 6.1.3 10k'!D2</f>
-        <v>1.70468949</v>
-      </c>
-      <c r="E23">
-        <f>'Virtuoso 6.1.3 10k'!E2</f>
-        <v>1.6966503720561701</v>
-      </c>
-      <c r="F23">
-        <f>'Virtuoso 6.1.3 10k'!J2</f>
-        <v>2111.82154938961</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24">
-        <f>'Virtuoso 6.1.3 50k'!B2</f>
-        <v>16.144235052999999</v>
-      </c>
-      <c r="D24">
-        <f>'Virtuoso 6.1.3 50k'!D2</f>
-        <v>17.315573960999998</v>
-      </c>
-      <c r="E24">
-        <f>'Virtuoso 6.1.3 50k'!E2</f>
-        <v>17.307374403936802</v>
-      </c>
-      <c r="F24">
-        <f>'Virtuoso 6.1.3 50k'!J2</f>
-        <v>207.90532315638501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25">
-        <f>'Virtuoso 6.1.3 250k'!B2</f>
-        <v>88.400123554000004</v>
-      </c>
-      <c r="D25">
-        <f>'Virtuoso 6.1.3 250k'!D2</f>
-        <v>94.811962686000001</v>
-      </c>
-      <c r="E25">
-        <f>'Virtuoso 6.1.3 250k'!E2</f>
-        <v>94.801031322823306</v>
-      </c>
-      <c r="F25">
-        <f>'Virtuoso 6.1.3 250k'!J2</f>
-        <v>37.969892174076598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26">
-        <f>'dotNetRDF Mem 10k'!B2</f>
-        <v>20.389302331</v>
-      </c>
-      <c r="D26">
-        <f>'dotNetRDF Mem 10k'!D2</f>
-        <v>20.679973202999999</v>
-      </c>
-      <c r="E26">
-        <f>'dotNetRDF Mem 10k'!E2</f>
-        <v>20.6693541686952</v>
-      </c>
-      <c r="F26">
-        <f>'dotNetRDF Mem 10k'!J2</f>
-        <v>174.08146348457299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
